--- a/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>25000000</v>
+        <v>5500000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,7 +511,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -545,11 +545,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -573,32 +573,32 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12500000</v>
+        <v>800000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>13500000</v>
+        <v>800000</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -607,32 +607,32 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8500000</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -647,17 +647,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3000000</v>
+        <v>12500000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>13500000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -675,23 +675,23 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>800000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>17730000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -709,23 +709,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25000000</v>
+        <v>4500000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>42200000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -749,11 +749,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4500000</v>
+        <v>17730000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -817,14 +817,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17730000</v>
+        <v>66000000</v>
       </c>
       <c r="C12" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -845,41 +845,143 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>21430000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>62730000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>69230000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>200000</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11800000</v>
+      <c r="B16" t="n">
+        <v>115730000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>109230000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" t="n">
+        <v>400000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>34300000</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,97 +1022,107 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8080000</v>
+        <v>20730000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2701000</v>
+        <v>4544000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2905000</v>
+        <v>3768000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6250000</v>
+        <v>4205000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>400000</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tiền Thuế</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Tiền Thuế</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6199000</v>
+        <v>3540000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5000000</v>
+        <v>6699000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>31575000</v>
+      <c r="B12" t="n">
+        <v>55336000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
@@ -7,8 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CHI TIẾT DOANH THU" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CHI TIẾT CHI TIÊU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DOANH SỐ CÁ NHÂN" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CHI TIÊU TỔNG HỢP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LŨY KẾ NGÀY" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,6 +417,2524 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Trả sau</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Dư nợ</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>505</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v/>
+      </c>
+      <c r="F2" t="n">
+        <v/>
+      </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
+      <c r="H2" t="n">
+        <v/>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v/>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v/>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>507</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Tiềm cằm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Nana</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>508</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Ngọc Vàng</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>509</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Ngọc Vàng</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>510</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nguyễn Văn Đình Quân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>511</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nguyễn ngọc trinh</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="I7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>512</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ngô Thị Cẩm Phương</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>513</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Hồng Nho</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>14730000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14730000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>514</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>515</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Khưu Thị Phượng Gấm</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>516</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Treo cung</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>thạch thuỳ lương</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>519</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>na quy</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>21500000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>520</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>521</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đa ni </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>522</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Làm má Lúm</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ngọc linh </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>525</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Đặng Thị Huệ</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>KCH</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>526</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Hoàng Thị Thu Vân</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>500000</v>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>528</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nasi ngọc </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>800000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>800000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v/>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>800000</v>
+      </c>
+      <c r="S19" t="n">
+        <v/>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>529</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>nguyễn thị hân</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v/>
+      </c>
+      <c r="O20" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã chi tiêu</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày chi</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Phân loại</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>571</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>572</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>573</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>574</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>575</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>576</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>580</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>581</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>582</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tiền Thuế</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>583</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1280000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>584</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>585</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>586</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>587</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>588</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>589</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1506000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>590</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>679000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>591</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>592</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>593</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07-04-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>597</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>598</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>365000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>599</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>600</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>601</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>602</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>603</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4544000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>604</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>605</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>606</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>782000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>607</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -989,7 +3510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1128,4 +3649,231 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Số lượng đơn</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Thu nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Lượng chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07-01-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20500000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>07-02-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>44230000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41230000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18480000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5370000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07-04-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>07-05-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>22976000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07-06-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1185000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07-07-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>285000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>123230000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>115930000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>34300000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55336000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,6 +2008,48 @@
       <c r="T20" t="n">
         <v/>
       </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>117230000</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>123230000</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>115930000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>115930000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7300000</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2020,7 +2062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2922,6 +2964,22 @@
       </c>
       <c r="F32" t="n">
         <v>285000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>55336000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -539,27 +549,35 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v/>
-      </c>
-      <c r="F2" t="n">
-        <v/>
-      </c>
-      <c r="G2" t="n">
-        <v/>
-      </c>
-      <c r="H2" t="n">
-        <v/>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Tiềm cằm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Nana</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="J2" t="n">
         <v/>
@@ -568,31 +586,41 @@
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v/>
+        <v>3000000</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v/>
       </c>
       <c r="O2" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
-      <c r="S2" t="n">
-        <v/>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -607,35 +635,35 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tiềm cằm</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nana</t>
+          <t>Đỗ Thị Ngọc Vàng</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="J3" t="n">
         <v/>
@@ -644,35 +672,41 @@
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N3" t="n">
         <v/>
       </c>
       <c r="O3" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3000000</v>
+        <v>8000000</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="T3" t="n">
         <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -687,7 +721,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -696,7 +730,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Mở góc mắt</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -715,33 +749,35 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v/>
+        <v>4000000</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v/>
+        <v>2000000</v>
       </c>
       <c r="L4" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N4" t="n">
         <v/>
       </c>
       <c r="O4" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -753,6 +789,12 @@
       </c>
       <c r="T4" t="n">
         <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -767,7 +809,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -776,17 +818,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mở góc mắt</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Đỗ Thị Ngọc Vàng</t>
+          <t>Nguyễn Văn Đình Quân</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -795,52 +837,54 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>500000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
       </c>
       <c r="K5" t="n">
-        <v>2000000</v>
+        <v/>
       </c>
       <c r="L5" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N5" t="n">
         <v/>
       </c>
       <c r="O5" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6000000</v>
+        <v>500000</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S5" t="n">
+        <v/>
       </c>
       <c r="T5" t="n">
         <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -849,35 +893,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nguyễn Văn Đình Quân</t>
+          <t>Nguyễn ngọc trinh</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v/>
       </c>
       <c r="I6" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="J6" t="n">
         <v/>
@@ -886,24 +928,24 @@
         <v/>
       </c>
       <c r="L6" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="N6" t="n">
         <v/>
       </c>
       <c r="O6" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>500000</v>
+        <v>1500000</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -913,12 +955,18 @@
       </c>
       <c r="T6" t="n">
         <v/>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-01-2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -927,59 +975,63 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nguyễn ngọc trinh</t>
+          <t>Ngô Thị Cẩm Phương</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v/>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="J7" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K7" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N7" t="n">
         <v/>
       </c>
       <c r="O7" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -989,12 +1041,18 @@
       </c>
       <c r="T7" t="n">
         <v/>
+      </c>
+      <c r="U7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>07-01-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1003,7 +1061,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1012,69 +1070,75 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ngô Thị Cẩm Phương</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>17730000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
       </c>
       <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>17730000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>14730000</v>
+      </c>
+      <c r="P8" t="n">
         <v>3000000</v>
       </c>
-      <c r="L8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>3000000</v>
+        <v>17730000</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
-      <c r="S8" t="n">
-        <v/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T8" t="n">
         <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-03-2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1083,7 +1147,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1092,12 +1156,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1107,11 +1171,11 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>17730000</v>
+        <v>4500000</v>
       </c>
       <c r="J9" t="n">
         <v/>
@@ -1120,41 +1184,45 @@
         <v/>
       </c>
       <c r="L9" t="n">
-        <v>17730000</v>
+        <v>4500000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N9" t="n">
         <v/>
       </c>
       <c r="O9" t="n">
-        <v>14730000</v>
+        <v>4500000</v>
       </c>
       <c r="P9" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>17730000</v>
+        <v>4500000</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S9" t="n">
+        <v/>
       </c>
       <c r="T9" t="n">
         <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1163,35 +1231,35 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Treo cung</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>thạch thuỳ lương</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>4500000</v>
+        <v>25000000</v>
       </c>
       <c r="J10" t="n">
         <v/>
@@ -1200,39 +1268,47 @@
         <v/>
       </c>
       <c r="L10" t="n">
-        <v>4500000</v>
+        <v>25000000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="N10" t="n">
         <v/>
       </c>
       <c r="O10" t="n">
-        <v>4500000</v>
+        <v>25000000</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4500000</v>
+        <v>25000000</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
-      <c r="S10" t="n">
-        <v/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T10" t="n">
         <v/>
+      </c>
+      <c r="U10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1241,7 +1317,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1250,12 +1326,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Treo cung</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>thạch thuỳ lương</t>
+          <t>na quy</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1269,7 +1345,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="J11" t="n">
         <v/>
@@ -1278,24 +1354,24 @@
         <v/>
       </c>
       <c r="L11" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N11" t="n">
         <v/>
       </c>
       <c r="O11" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>25000000</v>
+        <v>21500000</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1307,6 +1383,12 @@
       </c>
       <c r="T11" t="n">
         <v/>
+      </c>
+      <c r="U11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1321,7 +1403,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1335,7 +1417,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>na quy</t>
+          <t xml:space="preserve">đa ni </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1349,7 +1431,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>21500000</v>
+        <v>11000000</v>
       </c>
       <c r="J12" t="n">
         <v/>
@@ -1358,24 +1440,22 @@
         <v/>
       </c>
       <c r="L12" t="n">
-        <v>21500000</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>11000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v/>
       </c>
       <c r="N12" t="n">
         <v/>
       </c>
       <c r="O12" t="n">
-        <v>21500000</v>
+        <v>11000000</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21500000</v>
+        <v>11000000</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1387,6 +1467,12 @@
       </c>
       <c r="T12" t="n">
         <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1401,7 +1487,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1410,7 +1496,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun môi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1429,7 +1515,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="J13" t="n">
         <v/>
@@ -1438,33 +1524,39 @@
         <v/>
       </c>
       <c r="L13" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v/>
+        <v>5500000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
       </c>
       <c r="N13" t="n">
         <v/>
       </c>
       <c r="O13" t="n">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11000000</v>
+        <v>5500000</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S13" t="n">
+        <v/>
       </c>
       <c r="T13" t="n">
         <v/>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1479,7 +1571,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1488,12 +1580,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Phun môi</t>
+          <t>Làm má Lúm</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">đa ni </t>
+          <t xml:space="preserve">ngọc linh </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1507,7 +1599,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="J14" t="n">
         <v/>
@@ -1516,39 +1608,45 @@
         <v/>
       </c>
       <c r="L14" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v/>
       </c>
       <c r="N14" t="n">
         <v/>
       </c>
       <c r="O14" t="n">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="n">
-        <v/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T14" t="n">
         <v/>
+      </c>
+      <c r="U14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1557,35 +1655,35 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Làm má Lúm</t>
+          <t>Nâng cung chân mày</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ngọc linh </t>
+          <t>Đặng Thị Huệ</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Khách cửa hàng</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3000000</v>
+        <v>3700000</v>
       </c>
       <c r="J15" t="n">
         <v/>
@@ -1594,33 +1692,41 @@
         <v/>
       </c>
       <c r="L15" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M15" t="n">
-        <v/>
+        <v>3700000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N15" t="n">
         <v/>
       </c>
       <c r="O15" t="n">
-        <v>3000000</v>
+        <v>3700000</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>3000000</v>
+        <v>3700000</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="T15" t="n">
         <v/>
+      </c>
+      <c r="U15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1635,7 +1741,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1644,35 +1750,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Đặng Thị Huệ</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Khách cửa hàng</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
       <c r="K16" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="L16" t="n">
-        <v>3700000</v>
+        <v>1500000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1683,23 +1791,27 @@
         <v/>
       </c>
       <c r="O16" t="n">
-        <v>3700000</v>
+        <v>1000000</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="Q16" t="n">
-        <v>3700000</v>
+        <v>1500000</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S16" t="n">
+        <v/>
       </c>
       <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
         <v/>
       </c>
     </row>
@@ -1715,63 +1827,61 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t xml:space="preserve">nasi ngọc </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>800000</v>
+      </c>
+      <c r="J17" t="n">
+        <v/>
       </c>
       <c r="K17" t="n">
-        <v>1000000</v>
+        <v/>
       </c>
       <c r="L17" t="n">
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="N17" t="n">
         <v/>
       </c>
       <c r="O17" t="n">
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="P17" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1781,12 +1891,18 @@
       </c>
       <c r="T17" t="n">
         <v/>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-07-2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1795,7 +1911,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1804,12 +1920,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">nasi ngọc </t>
+          <t>nguyễn thị hân</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1819,52 +1935,60 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>800000</v>
-      </c>
-      <c r="J18" t="n">
-        <v/>
-      </c>
-      <c r="K18" t="n">
-        <v/>
-      </c>
-      <c r="L18" t="n">
-        <v>800000</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v/>
-      </c>
-      <c r="O18" t="n">
-        <v>800000</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>800000</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v/>
-      </c>
       <c r="T18" t="n">
         <v/>
+      </c>
+      <c r="U18" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>07-07-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1873,11 +1997,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1887,21 +2011,21 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>nguyễn thị hân</t>
+          <t>Võ thị nga</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="J19" t="n">
         <v/>
@@ -1910,7 +2034,7 @@
         <v/>
       </c>
       <c r="L19" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1921,24 +2045,30 @@
         <v/>
       </c>
       <c r="O19" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="P19" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="Q19" t="n">
-        <v>7000000</v>
+        <v>3500000</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="T19" t="n">
         <v/>
+      </c>
+      <c r="U19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1953,35 +2083,35 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Võ thị nga</t>
+          <t>Lê Thị Tuyết Anh</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>4000000</v>
+        <v>2600000</v>
       </c>
       <c r="J20" t="n">
         <v/>
@@ -1990,35 +2120,39 @@
         <v/>
       </c>
       <c r="L20" t="n">
-        <v>4000000</v>
+        <v>2600000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N20" t="n">
         <v/>
       </c>
       <c r="O20" t="n">
-        <v>3000000</v>
+        <v>2600000</v>
       </c>
       <c r="P20" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>3500000</v>
+        <v>2600000</v>
       </c>
       <c r="R20" t="n">
-        <v>500000</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v/>
       </c>
       <c r="T20" t="n">
         <v/>
+      </c>
+      <c r="U20" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2033,11 +2167,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2047,7 +2181,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lê Thị Tuyết Anh</t>
+          <t>ngô  xuân nghi</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2057,11 +2191,11 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2600000</v>
+        <v>688000</v>
       </c>
       <c r="J21" t="n">
         <v/>
@@ -2070,24 +2204,24 @@
         <v/>
       </c>
       <c r="L21" t="n">
-        <v>2600000</v>
+        <v>688000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="N21" t="n">
         <v/>
       </c>
       <c r="O21" t="n">
-        <v>2600000</v>
+        <v>688000</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2600000</v>
+        <v>688000</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2097,12 +2231,18 @@
       </c>
       <c r="T21" t="n">
         <v/>
+      </c>
+      <c r="U21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2111,21 +2251,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ngô  xuân nghi</t>
+          <t>Diễm hương</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2135,11 +2275,11 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>688000</v>
+        <v>1350000</v>
       </c>
       <c r="J22" t="n">
         <v/>
@@ -2148,33 +2288,41 @@
         <v/>
       </c>
       <c r="L22" t="n">
-        <v>688000</v>
+        <v>1350000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="N22" t="n">
         <v/>
       </c>
       <c r="O22" t="n">
-        <v>688000</v>
+        <v>1350000</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>688000</v>
+        <v>1350000</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
-      <c r="S22" t="n">
-        <v/>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
       </c>
       <c r="T22" t="n">
         <v/>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2189,21 +2337,21 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Diễm hương</t>
+          <t>Khưu Thị Phượng Gấm</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2213,11 +2361,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="J23" t="n">
         <v/>
@@ -2226,35 +2374,39 @@
         <v/>
       </c>
       <c r="L23" t="n">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N23" t="n">
         <v/>
       </c>
       <c r="O23" t="n">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1350000</v>
+        <v>1500000</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+      <c r="S23" t="n">
+        <v/>
       </c>
       <c r="T23" t="n">
         <v/>
+      </c>
+      <c r="U23" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2269,7 +2421,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2278,52 +2430,54 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Khưu Thị Phượng Gấm</t>
+          <t>Phan Minh Nguyệt</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>400000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>900000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="J24" t="n">
-        <v/>
-      </c>
-      <c r="K24" t="n">
-        <v/>
-      </c>
-      <c r="L24" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
       <c r="N24" t="n">
         <v/>
       </c>
       <c r="O24" t="n">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2332,13 +2486,19 @@
         <v/>
       </c>
       <c r="T24" t="n">
+        <v/>
+      </c>
+      <c r="U24" t="n">
+        <v/>
+      </c>
+      <c r="V24" t="n">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2347,63 +2507,61 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Phan Minh Nguyệt</t>
+          <t>Diệu</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>1500000</v>
+      </c>
+      <c r="J25" t="n">
+        <v/>
       </c>
       <c r="K25" t="n">
-        <v>400000</v>
+        <v/>
       </c>
       <c r="L25" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="N25" t="n">
         <v/>
       </c>
       <c r="O25" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2413,6 +2571,12 @@
       </c>
       <c r="T25" t="n">
         <v/>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2427,35 +2591,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Diệu</t>
+          <t xml:space="preserve">dương thị lệ </t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Sang sang</t>
-        </is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v/>
       </c>
       <c r="I26" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J26" t="n">
         <v/>
@@ -2464,24 +2626,24 @@
         <v/>
       </c>
       <c r="L26" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N26" t="n">
         <v/>
       </c>
       <c r="O26" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2490,6 +2652,12 @@
         <v/>
       </c>
       <c r="T26" t="n">
+        <v/>
+      </c>
+      <c r="U26" t="n">
+        <v/>
+      </c>
+      <c r="V26" t="n">
         <v/>
       </c>
     </row>
@@ -2505,68 +2673,80 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">dương thị lệ </t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v/>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="J27" t="n">
-        <v/>
+        <v>10000000</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K27" t="n">
-        <v/>
+        <v>8000000</v>
       </c>
       <c r="L27" t="n">
-        <v>1000000</v>
+        <v>18000000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Bác Sĩ Ngoài</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N27" t="n">
         <v/>
       </c>
       <c r="O27" t="n">
-        <v>1000000</v>
+        <v>9500000</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1000000</v>
+        <v>9500000</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v/>
+        <v>8500000</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T27" t="n">
         <v/>
+      </c>
+      <c r="U27" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V27" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="28">
@@ -2581,7 +2761,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2590,37 +2770,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm botox</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Trần Thị Thuỳ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="J28" t="n">
+        <v/>
       </c>
       <c r="K28" t="n">
-        <v>8000000</v>
+        <v/>
       </c>
       <c r="L28" t="n">
-        <v>18000000</v>
+        <v>3000000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2631,30 +2809,34 @@
         <v/>
       </c>
       <c r="O28" t="n">
-        <v>9500000</v>
+        <v>3000000</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>9500000</v>
+        <v>3000000</v>
       </c>
       <c r="R28" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v/>
       </c>
       <c r="T28" t="n">
         <v/>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2663,35 +2845,33 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trần Thị Thuỳ</t>
+          <t>Thuỳ dương</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v/>
       </c>
       <c r="I29" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="J29" t="n">
         <v/>
@@ -2700,24 +2880,24 @@
         <v/>
       </c>
       <c r="L29" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="N29" t="n">
         <v/>
       </c>
       <c r="O29" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2727,6 +2907,12 @@
       </c>
       <c r="T29" t="n">
         <v/>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2741,33 +2927,35 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Thuỳ dương</t>
+          <t xml:space="preserve">xuân diệu </t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v/>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="I30" t="n">
-        <v>2500000</v>
+        <v>1200000</v>
       </c>
       <c r="J30" t="n">
         <v/>
@@ -2776,24 +2964,24 @@
         <v/>
       </c>
       <c r="L30" t="n">
-        <v>2500000</v>
+        <v>1200000</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="N30" t="n">
         <v/>
       </c>
       <c r="O30" t="n">
-        <v>2500000</v>
+        <v>1200000</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2500000</v>
+        <v>1200000</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2803,12 +2991,18 @@
       </c>
       <c r="T30" t="n">
         <v/>
+      </c>
+      <c r="U30" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-13-2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2817,21 +3011,21 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">xuân diệu </t>
+          <t>Huỳnh thị bé sáu</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2841,11 +3035,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1200000</v>
+        <v>11500000</v>
       </c>
       <c r="J31" t="n">
         <v/>
@@ -2854,33 +3048,41 @@
         <v/>
       </c>
       <c r="L31" t="n">
-        <v>1200000</v>
+        <v>11500000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N31" t="n">
         <v/>
       </c>
       <c r="O31" t="n">
-        <v>1200000</v>
+        <v>9000000</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1200000</v>
+        <v>9000000</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v/>
+        <v>2500000</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
       </c>
       <c r="T31" t="n">
         <v/>
+      </c>
+      <c r="U31" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2895,7 +3097,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2904,12 +3106,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Huỳnh thị bé sáu</t>
+          <t>Kiều tiên</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2919,11 +3121,11 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>11500000</v>
+        <v>1800000</v>
       </c>
       <c r="J32" t="n">
         <v/>
@@ -2932,41 +3134,45 @@
         <v/>
       </c>
       <c r="L32" t="n">
-        <v>11500000</v>
+        <v>1800000</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v/>
       </c>
       <c r="O32" t="n">
-        <v>9000000</v>
+        <v>1800000</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9000000</v>
+        <v>1800000</v>
       </c>
       <c r="R32" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v/>
       </c>
       <c r="T32" t="n">
         <v/>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>07-13-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2975,35 +3181,35 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kiều tiên</t>
+          <t>Phạm Thị Tuyết Nhi</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="J33" t="n">
         <v/>
@@ -3012,24 +3218,24 @@
         <v/>
       </c>
       <c r="L33" t="n">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N33" t="n">
         <v/>
       </c>
       <c r="O33" t="n">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3039,6 +3245,12 @@
       </c>
       <c r="T33" t="n">
         <v/>
+      </c>
+      <c r="U33" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3053,7 +3265,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3062,26 +3274,26 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Phạm Thị Tuyết Nhi</t>
+          <t>Huỳnh Thị Kim Trâm</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="J34" t="n">
         <v/>
@@ -3090,7 +3302,7 @@
         <v/>
       </c>
       <c r="L34" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3101,13 +3313,13 @@
         <v/>
       </c>
       <c r="O34" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2800000</v>
+        <v>1500000</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3117,12 +3329,18 @@
       </c>
       <c r="T34" t="n">
         <v/>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3131,7 +3349,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3140,12 +3358,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Trâm</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3159,16 +3377,18 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="J35" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="K35" t="n">
-        <v/>
+        <v>1300000</v>
       </c>
       <c r="L35" t="n">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3188,13 +3408,19 @@
         <v>1500000</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="S35" t="n">
         <v/>
       </c>
       <c r="T35" t="n">
         <v/>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3209,7 +3435,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3218,63 +3444,69 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Ngọc Nhiên</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>20000000</v>
+      </c>
+      <c r="J36" t="n">
+        <v/>
       </c>
       <c r="K36" t="n">
-        <v>1300000</v>
+        <v/>
       </c>
       <c r="L36" t="n">
-        <v>1800000</v>
+        <v>20000000</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N36" t="n">
         <v/>
       </c>
       <c r="O36" t="n">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="R36" t="n">
-        <v>300000</v>
-      </c>
-      <c r="S36" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T36" t="n">
         <v/>
+      </c>
+      <c r="U36" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V36" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="37">
@@ -3289,7 +3521,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3298,7 +3530,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3317,7 +3549,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="J37" t="n">
         <v/>
@@ -3326,35 +3558,39 @@
         <v/>
       </c>
       <c r="L37" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N37" t="n">
         <v/>
       </c>
       <c r="O37" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>20000000</v>
+        <v>1200000</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S37" t="n">
+        <v/>
       </c>
       <c r="T37" t="n">
         <v/>
+      </c>
+      <c r="U37" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3369,7 +3605,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3378,35 +3614,37 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Nhiên</t>
+          <t>Lê Thị Hiền</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1200000</v>
-      </c>
-      <c r="J38" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="K38" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="L38" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3417,13 +3655,13 @@
         <v/>
       </c>
       <c r="O38" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1200000</v>
+        <v>1500000</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3433,6 +3671,12 @@
       </c>
       <c r="T38" t="n">
         <v/>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3447,78 +3691,84 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Thu cánh mũi</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lê Thị Hiền</t>
+          <t>Kim anh</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>4000000</v>
+      </c>
+      <c r="J39" t="n">
+        <v/>
       </c>
       <c r="K39" t="n">
-        <v>1000000</v>
+        <v/>
       </c>
       <c r="L39" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N39" t="n">
         <v/>
       </c>
       <c r="O39" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1500000</v>
+        <v>4000000</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
-      <c r="S39" t="n">
-        <v/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
       </c>
       <c r="T39" t="n">
         <v/>
+      </c>
+      <c r="U39" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>07-14-2024</t>
+          <t>07-15-2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3527,21 +3777,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Thu cánh mũi</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kim anh</t>
+          <t xml:space="preserve">nguyễn thị lệ trang </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3551,11 +3801,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4000000</v>
+        <v>30000000</v>
       </c>
       <c r="J40" t="n">
         <v/>
@@ -3564,7 +3814,7 @@
         <v/>
       </c>
       <c r="L40" t="n">
-        <v>4000000</v>
+        <v>30000000</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3575,24 +3825,32 @@
         <v/>
       </c>
       <c r="O40" t="n">
-        <v>4000000</v>
+        <v>25000000</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="Q40" t="n">
-        <v>4000000</v>
+        <v>30000000</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="T40" t="n">
-        <v/>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V40" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="41">
@@ -3607,7 +3865,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,12 +3874,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t xml:space="preserve">cắt sẹo </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị lệ trang </t>
+          <t>lê thị bích</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3631,56 +3889,62 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="I41" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="J41" t="n">
-        <v/>
-      </c>
       <c r="K41" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="L41" t="n">
-        <v>30000000</v>
+        <v>13000000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="N41" t="n">
         <v/>
       </c>
       <c r="O41" t="n">
-        <v>25000000</v>
+        <v>13000000</v>
       </c>
       <c r="P41" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>30000000</v>
+        <v>13000000</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v/>
+      </c>
+      <c r="U41" t="n">
+        <v/>
+      </c>
+      <c r="V41" t="n">
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>07-15-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3689,21 +3953,21 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">cắt sẹo </t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>lê thị bích</t>
+          <t>Nguyễn thị hồng cúc</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3713,50 +3977,54 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>7000000</v>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="J42" t="n">
+        <v/>
       </c>
       <c r="K42" t="n">
-        <v>6000000</v>
+        <v/>
       </c>
       <c r="L42" t="n">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Bác Sĩ Thảo</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="N42" t="n">
         <v/>
       </c>
       <c r="O42" t="n">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="T42" t="n">
         <v/>
+      </c>
+      <c r="U42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3771,35 +4039,35 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Tiêm botox</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Nguyễn thị hồng cúc</t>
+          <t>Nguyễn Bảo Hân</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="J43" t="n">
         <v/>
@@ -3808,35 +4076,39 @@
         <v/>
       </c>
       <c r="L43" t="n">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N43" t="n">
         <v/>
       </c>
       <c r="O43" t="n">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>7000000</v>
+        <v>1300000</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Sang sang</t>
-        </is>
+      <c r="S43" t="n">
+        <v/>
       </c>
       <c r="T43" t="n">
         <v/>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3851,7 +4123,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3860,26 +4132,26 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Hân</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1300000</v>
+        <v>35000000</v>
       </c>
       <c r="J44" t="n">
         <v/>
@@ -3888,33 +4160,41 @@
         <v/>
       </c>
       <c r="L44" t="n">
-        <v>1300000</v>
+        <v>35000000</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N44" t="n">
         <v/>
       </c>
       <c r="O44" t="n">
-        <v>1300000</v>
+        <v>32000000</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1300000</v>
+        <v>32000000</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v/>
+        <v>3000000</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T44" t="n">
         <v/>
+      </c>
+      <c r="U44" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V44" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="45">
@@ -3929,7 +4209,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3938,12 +4218,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3957,7 +4237,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>35000000</v>
+        <v>10000000</v>
       </c>
       <c r="J45" t="n">
         <v/>
@@ -3966,27 +4246,27 @@
         <v/>
       </c>
       <c r="L45" t="n">
-        <v>35000000</v>
+        <v>10000000</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N45" t="n">
         <v/>
       </c>
       <c r="O45" t="n">
-        <v>32000000</v>
+        <v>7500000</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>32000000</v>
+        <v>7500000</v>
       </c>
       <c r="R45" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -3995,6 +4275,12 @@
       </c>
       <c r="T45" t="n">
         <v/>
+      </c>
+      <c r="U45" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4009,7 +4295,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4018,7 +4304,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Mở góc mắt</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4037,7 +4323,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>10000000</v>
+        <v>8000000</v>
       </c>
       <c r="J46" t="n">
         <v/>
@@ -4046,7 +4332,7 @@
         <v/>
       </c>
       <c r="L46" t="n">
-        <v>10000000</v>
+        <v>8000000</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4057,24 +4343,30 @@
         <v/>
       </c>
       <c r="O46" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>2500000</v>
+        <v>8000000</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="T46" t="n">
         <v/>
+      </c>
+      <c r="U46" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4089,78 +4381,82 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mở góc mắt</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t xml:space="preserve">diệp ngọc anh </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v/>
       </c>
       <c r="I47" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="J47" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="K47" t="n">
-        <v/>
+        <v>800000</v>
       </c>
       <c r="L47" t="n">
-        <v>8000000</v>
+        <v>1300000</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N47" t="n">
         <v/>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="R47" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Trương Lâm Khanh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v/>
       </c>
       <c r="T47" t="n">
         <v/>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -4169,7 +4465,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4178,52 +4474,52 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">diệp ngọc anh </t>
+          <t xml:space="preserve">trần yến vi </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v/>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="I48" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J48" t="inlineStr">
+        <v>1600000</v>
+      </c>
+      <c r="J48" t="n">
+        <v/>
+      </c>
+      <c r="K48" t="n">
+        <v/>
+      </c>
+      <c r="L48" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="K48" t="n">
-        <v>800000</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1300000</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
       <c r="N48" t="n">
         <v/>
       </c>
       <c r="O48" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -4233,6 +4529,12 @@
       </c>
       <c r="T48" t="n">
         <v/>
+      </c>
+      <c r="U48" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4247,11 +4549,11 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4261,7 +4563,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">trần yến vi </t>
+          <t>Nguyễn Bảo Nhi</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4271,11 +4573,11 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1600000</v>
+        <v>1800000</v>
       </c>
       <c r="J49" t="n">
         <v/>
@@ -4284,33 +4586,39 @@
         <v/>
       </c>
       <c r="L49" t="n">
-        <v>1600000</v>
+        <v>1800000</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N49" t="n">
         <v/>
       </c>
       <c r="O49" t="n">
-        <v/>
+        <v>1800000</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="R49" t="n">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v/>
       </c>
       <c r="T49" t="n">
         <v/>
+      </c>
+      <c r="U49" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4325,7 +4633,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4339,7 +4647,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Nguyễn Bảo Nhi</t>
+          <t>Đặng Thị Ngọc Huyền</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4349,11 +4657,11 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1800000</v>
+        <v>1050000</v>
       </c>
       <c r="J50" t="n">
         <v/>
@@ -4362,7 +4670,7 @@
         <v/>
       </c>
       <c r="L50" t="n">
-        <v>1800000</v>
+        <v>1050000</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -4373,13 +4681,13 @@
         <v/>
       </c>
       <c r="O50" t="n">
-        <v>1800000</v>
+        <v>1050000</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>1800000</v>
+        <v>1050000</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4389,6 +4697,12 @@
       </c>
       <c r="T50" t="n">
         <v/>
+      </c>
+      <c r="U50" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4403,7 +4717,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4412,12 +4726,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Đặng Thị Ngọc Huyền</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4431,7 +4745,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1050000</v>
+        <v>18000000</v>
       </c>
       <c r="J51" t="n">
         <v/>
@@ -4440,33 +4754,43 @@
         <v/>
       </c>
       <c r="L51" t="n">
-        <v>1050000</v>
+        <v>18000000</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v/>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="O51" t="n">
-        <v>1050000</v>
+        <v>18000000</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1050000</v>
+        <v>18000000</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
-      <c r="S51" t="n">
-        <v/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T51" t="n">
         <v/>
+      </c>
+      <c r="U51" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V51" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="52">
@@ -4481,7 +4805,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4490,26 +4814,26 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t>Nguyễn Ngọc Bảo Anh</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>18000000</v>
+        <v>4500000</v>
       </c>
       <c r="J52" t="n">
         <v/>
@@ -4518,43 +4842,45 @@
         <v/>
       </c>
       <c r="L52" t="n">
-        <v>18000000</v>
+        <v>4500000</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+      <c r="N52" t="n">
+        <v/>
       </c>
       <c r="O52" t="n">
-        <v>18000000</v>
+        <v>4500000</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>18000000</v>
+        <v>4500000</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S52" t="n">
+        <v/>
       </c>
       <c r="T52" t="n">
         <v/>
+      </c>
+      <c r="U52" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-18-2024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4563,26 +4889,26 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc Bảo Anh</t>
+          <t xml:space="preserve">nguyễn thị mỹ châm </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4591,85 +4917,269 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="J53" t="n">
-        <v/>
+        <v>17000000</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
       </c>
       <c r="K53" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="L53" t="n">
-        <v>4500000</v>
+        <v>20000000</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v/>
+      </c>
+      <c r="O53" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v/>
+      </c>
+      <c r="U53" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V53" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>569</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>diệp thị mỹ hiền</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="N53" t="n">
-        <v/>
-      </c>
-      <c r="O53" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>4500000</v>
-      </c>
-      <c r="R53" t="n">
-        <v>0</v>
-      </c>
-      <c r="S53" t="n">
-        <v/>
-      </c>
-      <c r="T53" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
+      <c r="I54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J54" t="n">
+        <v/>
+      </c>
+      <c r="K54" t="n">
+        <v/>
+      </c>
+      <c r="L54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v/>
+      </c>
+      <c r="O54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v/>
+      </c>
+      <c r="T54" t="n">
+        <v/>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>570</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>đặng thị mỹ ngọc</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J55" t="n">
+        <v/>
+      </c>
+      <c r="K55" t="n">
+        <v/>
+      </c>
+      <c r="L55" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v/>
+      </c>
+      <c r="O55" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v/>
+      </c>
+      <c r="T55" t="n">
+        <v/>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>52</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
-        <v>316618000</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>23500000</v>
-      </c>
-      <c r="L54" t="n">
-        <v>340118000</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>301218000</v>
-      </c>
-      <c r="P54" t="n">
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>336618000</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>26500000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>363118000</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>325818000</v>
+      </c>
+      <c r="P56" t="n">
         <v>12000000</v>
       </c>
-      <c r="Q54" t="n">
-        <v>313218000</v>
-      </c>
-      <c r="R54" t="n">
-        <v>26900000</v>
-      </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>337818000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>25300000</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="V56" t="n">
+        <v>350000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4682,7 +5192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7011,17 +7521,241 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>660</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>07-16-2024</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>661</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>662</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>663</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>664</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>665</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>666</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>667</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>82</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="n">
-        <v>205451000</v>
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="n">
+        <v>216711000</v>
       </c>
     </row>
   </sheetData>
@@ -7051,12 +7785,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Doanh số sale chính</t>
+          <t>Tổng đơn giá sale vòng 1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Doanh số upsale</t>
+          <t>Tổng đơn giá vòng upsale</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -7216,10 +7950,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>350000</v>
+        <v>450000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -7306,13 +8040,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48200000</v>
+        <v>68200000</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>54600000</v>
+        <v>46600000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -7330,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>23700000</v>
+        <v>21700000</v>
       </c>
     </row>
     <row r="9">
@@ -7411,7 +8145,7 @@
         <v>90000000</v>
       </c>
       <c r="C11" t="n">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -7448,7 +8182,7 @@
         <v>2300000</v>
       </c>
       <c r="D12" t="n">
-        <v>78050000</v>
+        <v>66750000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7516,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>106730000</v>
+        <v>123730000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7772,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="22">
@@ -7782,22 +8516,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>311118000</v>
+        <v>331118000</v>
       </c>
       <c r="C22" t="n">
-        <v>23500000</v>
+        <v>26500000</v>
       </c>
       <c r="D22" t="n">
-        <v>308118000</v>
+        <v>305818000</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>1350000</v>
+        <v>1450000</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -7847,7 +8581,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26180000</v>
+        <v>27270000</v>
       </c>
     </row>
     <row r="3">
@@ -7857,7 +8591,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101674000</v>
+        <v>102974000</v>
       </c>
     </row>
     <row r="4">
@@ -7867,7 +8601,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4947000</v>
+        <v>5317000</v>
       </c>
     </row>
     <row r="5">
@@ -7927,7 +8661,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18469000</v>
+        <v>26969000</v>
       </c>
     </row>
     <row r="11">
@@ -7947,7 +8681,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>205451000</v>
+        <v>216711000</v>
       </c>
     </row>
   </sheetData>
@@ -7961,7 +8695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8014,7 +8748,7 @@
         <v>20500000</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>6000000</v>
@@ -8328,7 +9062,7 @@
         <v>9200000</v>
       </c>
       <c r="F16" t="n">
-        <v>1289000</v>
+        <v>1679000</v>
       </c>
     </row>
     <row r="17">
@@ -8341,7 +9075,7 @@
         <v>26950000</v>
       </c>
       <c r="C17" t="n">
-        <v>25350000</v>
+        <v>26950000</v>
       </c>
       <c r="D17" t="n">
         <v>5</v>
@@ -8356,23 +9090,45 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>07-18-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10870000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>340118000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>301218000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>52</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="B19" t="n">
+        <v>363118000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>325818000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>54</v>
+      </c>
+      <c r="E19" t="n">
         <v>54000000</v>
       </c>
-      <c r="F18" t="n">
-        <v>205451000</v>
+      <c r="F19" t="n">
+        <v>216711000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
@@ -1442,8 +1442,10 @@
       <c r="L12" t="n">
         <v>11000000</v>
       </c>
-      <c r="M12" t="n">
-        <v/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v/>
@@ -1610,8 +1612,10 @@
       <c r="L14" t="n">
         <v>3000000</v>
       </c>
-      <c r="M14" t="n">
-        <v/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N14" t="n">
         <v/>
@@ -5192,7 +5196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7745,17 +7749,73 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>668</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>417000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>669</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>90</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="n">
-        <v>216711000</v>
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="n">
+        <v>217228000</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21700000</v>
+        <v>30700000</v>
       </c>
     </row>
     <row r="9">
@@ -8182,7 +8242,7 @@
         <v>2300000</v>
       </c>
       <c r="D12" t="n">
-        <v>66750000</v>
+        <v>80750000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8522,7 +8582,7 @@
         <v>26500000</v>
       </c>
       <c r="D22" t="n">
-        <v>305818000</v>
+        <v>319818000</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8540,7 +8600,7 @@
         <v>50000</v>
       </c>
       <c r="J22" t="n">
-        <v>54000000</v>
+        <v>63000000</v>
       </c>
     </row>
   </sheetData>
@@ -8601,7 +8661,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5317000</v>
+        <v>5417000</v>
       </c>
     </row>
     <row r="5">
@@ -8651,7 +8711,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12083000</v>
+        <v>12500000</v>
       </c>
     </row>
     <row r="10">
@@ -8681,7 +8741,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>216711000</v>
+        <v>217228000</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +8755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9112,23 +9172,45 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>07-19-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>517000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>363118000</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>325818000</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>54</v>
       </c>
-      <c r="E19" t="n">
-        <v>54000000</v>
-      </c>
-      <c r="F19" t="n">
-        <v>216711000</v>
+      <c r="E20" t="n">
+        <v>63000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>217228000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5138,50 +5138,218 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>572</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Như Huỳnh</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v/>
+      </c>
+      <c r="O56" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v/>
+      </c>
+      <c r="T56" t="n">
+        <v/>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>573</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Kim yến</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v/>
+      </c>
+      <c r="I57" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v/>
+      </c>
+      <c r="K57" t="n">
+        <v/>
+      </c>
+      <c r="L57" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v/>
+      </c>
+      <c r="O57" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v/>
+      </c>
+      <c r="T57" t="n">
+        <v/>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>54</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
-        <v>336618000</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>26500000</v>
-      </c>
-      <c r="L56" t="n">
-        <v>363118000</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="n">
-        <v>325818000</v>
-      </c>
-      <c r="P56" t="n">
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>339118000</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>367118000</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>329818000</v>
+      </c>
+      <c r="P58" t="n">
         <v>12000000</v>
       </c>
-      <c r="Q56" t="n">
-        <v>337818000</v>
-      </c>
-      <c r="R56" t="n">
+      <c r="Q58" t="n">
+        <v>341818000</v>
+      </c>
+      <c r="R58" t="n">
         <v>25300000</v>
       </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="n">
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="n">
         <v>2100000</v>
       </c>
-      <c r="V56" t="n">
+      <c r="V58" t="n">
         <v>350000</v>
       </c>
     </row>
@@ -5196,7 +5364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5395,8 +5563,10 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>5000000</v>
@@ -5409,7 +5579,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -5418,14 +5588,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v/>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
       </c>
       <c r="F8" t="n">
-        <v/>
+        <v>1280000</v>
       </c>
     </row>
     <row r="9">
@@ -5435,25 +5607,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tiền Thuế</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>5000000</v>
       </c>
     </row>
     <row r="10">
@@ -5463,25 +5635,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-02-2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1280000</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="11">
@@ -5491,7 +5663,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5505,11 +5677,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="12">
@@ -5519,7 +5691,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5533,11 +5705,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6250000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="13">
@@ -5547,7 +5719,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -5561,11 +5733,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="14">
@@ -5575,11 +5747,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-03-2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5593,7 +5765,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>300000</v>
+        <v>1506000</v>
       </c>
     </row>
     <row r="15">
@@ -5603,25 +5775,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07-02-2024</t>
+          <t>07-03-2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1000000</v>
+        <v>679000</v>
       </c>
     </row>
     <row r="16">
@@ -5631,7 +5803,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -5640,16 +5812,16 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1506000</v>
+        <v>405000</v>
       </c>
     </row>
     <row r="17">
@@ -5659,7 +5831,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -5673,11 +5845,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>679000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="18">
@@ -5687,25 +5859,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-04-2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>405000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="19">
@@ -5715,25 +5887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1500000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="20">
@@ -5743,11 +5915,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07-04-2024</t>
+          <t>07-06-2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -5757,11 +5929,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40000</v>
+        <v>365000</v>
       </c>
     </row>
     <row r="21">
@@ -5771,7 +5943,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -5780,7 +5952,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5789,7 +5961,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>320000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="22">
@@ -5799,25 +5971,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>365000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="23">
@@ -5827,25 +5999,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07-06-2024</t>
+          <t>07-05-2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>500000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="24">
@@ -5855,7 +6027,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -5869,11 +6041,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1300000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="25">
@@ -5883,7 +6055,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -5897,11 +6069,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>11000000</v>
+        <v>4544000</v>
       </c>
     </row>
     <row r="26">
@@ -5911,7 +6083,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5925,11 +6097,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1650000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="27">
@@ -5939,7 +6111,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5953,11 +6125,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4544000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="28">
@@ -5967,7 +6139,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -5981,11 +6153,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200000</v>
+        <v>782000</v>
       </c>
     </row>
     <row r="29">
@@ -5995,11 +6167,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-07-2024</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -6009,11 +6181,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3500000</v>
+        <v>285000</v>
       </c>
     </row>
     <row r="30">
@@ -6023,25 +6195,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>07-05-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>782000</v>
+        <v>7760000</v>
       </c>
     </row>
     <row r="31">
@@ -6051,25 +6223,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>07-07-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>285000</v>
+        <v>652000</v>
       </c>
     </row>
     <row r="32">
@@ -6079,7 +6251,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6093,11 +6265,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7760000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="33">
@@ -6107,7 +6279,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -6119,13 +6291,11 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Ứng Lương</t>
-        </is>
+      <c r="E33" t="n">
+        <v/>
       </c>
       <c r="F33" t="n">
-        <v>652000</v>
+        <v>2843000</v>
       </c>
     </row>
     <row r="34">
@@ -6135,7 +6305,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -6144,16 +6314,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>550000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="35">
@@ -6163,11 +6333,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6175,11 +6345,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
       </c>
       <c r="F35" t="n">
-        <v>2843000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="36">
@@ -6189,25 +6361,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>500000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="37">
@@ -6217,11 +6389,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-08-2024</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6235,7 +6407,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>350000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="38">
@@ -6245,7 +6417,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -6273,11 +6445,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>07-08-2024</t>
+          <t>07-09-2024</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6291,7 +6463,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="40">
@@ -6301,25 +6473,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>350000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="41">
@@ -6329,25 +6501,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>07-09-2024</t>
+          <t>07-13-2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>500000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="42">
@@ -6357,7 +6529,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -6366,16 +6538,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>108000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="43">
@@ -6385,25 +6557,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>07-13-2024</t>
+          <t>07-11-2024</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>130000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="44">
@@ -6413,7 +6585,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -6422,12 +6594,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -6441,7 +6613,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -6450,7 +6622,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -6459,7 +6631,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="46">
@@ -6469,7 +6641,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6481,13 +6653,11 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Chi Phí Vận Hành</t>
-        </is>
+      <c r="E46" t="n">
+        <v/>
       </c>
       <c r="F46" t="n">
-        <v>300000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="47">
@@ -6497,7 +6667,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6515,7 +6685,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>500000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="48">
@@ -6525,7 +6695,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6537,11 +6707,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
       </c>
       <c r="F48" t="n">
-        <v>5000000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="49">
@@ -6551,25 +6723,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>198000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="50">
@@ -6579,25 +6751,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>07-11-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>440000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="51">
@@ -6607,25 +6779,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-13-2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>85000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="52">
@@ -6635,16 +6807,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-13-2024</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -6653,7 +6825,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>260000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="53">
@@ -6663,7 +6835,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6681,7 +6853,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>60000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="54">
@@ -6691,7 +6863,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6705,11 +6877,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="55">
@@ -6719,7 +6891,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6733,11 +6905,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>210000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="56">
@@ -6747,7 +6919,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6761,11 +6933,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="57">
@@ -6775,7 +6947,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6784,7 +6956,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -6793,7 +6965,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1300000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="58">
@@ -6803,25 +6975,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>07-13-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>4000000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="59">
@@ -6831,25 +7003,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>07-13-2024</t>
+          <t>07-12-2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>800000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="60">
@@ -6859,11 +7031,11 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6873,11 +7045,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1300000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="61">
@@ -6887,11 +7059,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>07-12-2024</t>
+          <t>07-14-2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6901,11 +7073,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200000</v>
+        <v>365000</v>
       </c>
     </row>
     <row r="62">
@@ -6915,7 +7087,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -6933,7 +7105,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3500000</v>
+        <v>1130000</v>
       </c>
     </row>
     <row r="63">
@@ -6943,7 +7115,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -6961,7 +7133,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>365000</v>
+        <v>1170000</v>
       </c>
     </row>
     <row r="64">
@@ -6971,25 +7143,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>07-14-2024</t>
+          <t>07-15-2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1130000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="65">
@@ -6999,25 +7171,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>07-14-2024</t>
+          <t>07-15-2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1170000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="66">
@@ -7027,7 +7199,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7041,11 +7213,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3250000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="67">
@@ -7055,7 +7227,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7069,11 +7241,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>300000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="68">
@@ -7083,7 +7255,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7097,11 +7269,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1300000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="69">
@@ -7111,7 +7283,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7125,11 +7297,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1000000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="70">
@@ -7139,7 +7311,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7153,11 +7325,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1080000</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="71">
@@ -7167,25 +7339,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>07-15-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>450000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="72">
@@ -7195,25 +7367,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>07-15-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>310000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="73">
@@ -7223,7 +7395,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -7232,16 +7404,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>89000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="74">
@@ -7251,25 +7423,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Tiền Thuế</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1000000</v>
+        <v>5985000</v>
       </c>
     </row>
     <row r="75">
@@ -7279,25 +7451,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-17-2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="76">
@@ -7307,7 +7479,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -7316,16 +7488,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Tiền Thuế</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5985000</v>
+        <v>82500000</v>
       </c>
     </row>
     <row r="77">
@@ -7335,7 +7507,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -7344,16 +7516,14 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Chi Phí Vận Hành</t>
-        </is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v/>
       </c>
       <c r="F77" t="n">
-        <v>140000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="78">
@@ -7363,7 +7533,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -7372,7 +7542,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7381,7 +7551,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>82500000</v>
+        <v>14630000</v>
       </c>
     </row>
     <row r="79">
@@ -7391,7 +7561,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -7403,11 +7573,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
       </c>
       <c r="F79" t="n">
-        <v>5000000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="80">
@@ -7417,7 +7589,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -7431,11 +7603,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>14630000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="81">
@@ -7445,7 +7617,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -7459,11 +7631,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>225000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="82">
@@ -7473,25 +7645,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-16-2024</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>60000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="83">
@@ -7501,25 +7673,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>07-17-2024</t>
+          <t>07-18-2024</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>65000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="84">
@@ -7529,11 +7701,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>07-16-2024</t>
+          <t>07-18-2024</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -7543,11 +7715,11 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>390000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="85">
@@ -7557,7 +7729,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -7566,16 +7738,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>80000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="86">
@@ -7585,7 +7757,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -7599,11 +7771,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>290000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="87">
@@ -7613,7 +7785,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -7627,11 +7799,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>300000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="88">
@@ -7641,7 +7813,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -7659,7 +7831,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="89">
@@ -7669,7 +7841,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -7678,16 +7850,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="90">
@@ -7697,25 +7869,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>07-18-2024</t>
+          <t>07-19-2024</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5000000</v>
+        <v>417000</v>
       </c>
     </row>
     <row r="91">
@@ -7725,25 +7897,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>07-18-2024</t>
+          <t>07-19-2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="92">
@@ -7753,7 +7925,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -7762,16 +7934,16 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>417000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="93">
@@ -7781,41 +7953,125 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>07-19-2024</t>
+          <t>07-20-2024</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>672</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>673</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>674</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>92</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="n">
-        <v>217228000</v>
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>224378000</v>
       </c>
     </row>
   </sheetData>
@@ -7964,7 +8220,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3500000</v>
+        <v>4000000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8242,7 +8498,7 @@
         <v>2300000</v>
       </c>
       <c r="D12" t="n">
-        <v>80750000</v>
+        <v>82750000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8514,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>18650000</v>
+        <v>20650000</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -8545,7 +8801,7 @@
         <v>45780000</v>
       </c>
       <c r="C21" t="n">
-        <v>14400000</v>
+        <v>15900000</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8576,13 +8832,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>331118000</v>
+        <v>331618000</v>
       </c>
       <c r="C22" t="n">
-        <v>26500000</v>
+        <v>28000000</v>
       </c>
       <c r="D22" t="n">
-        <v>319818000</v>
+        <v>323818000</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8641,7 +8897,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27270000</v>
+        <v>28870000</v>
       </c>
     </row>
     <row r="3">
@@ -8661,7 +8917,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5417000</v>
+        <v>10767000</v>
       </c>
     </row>
     <row r="5">
@@ -8711,7 +8967,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12500000</v>
+        <v>14700000</v>
       </c>
     </row>
     <row r="10">
@@ -8721,7 +8977,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26969000</v>
+        <v>29969000</v>
       </c>
     </row>
     <row r="11">
@@ -8731,7 +8987,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17843000</v>
+        <v>12843000</v>
       </c>
     </row>
     <row r="12">
@@ -8741,7 +8997,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>217228000</v>
+        <v>224378000</v>
       </c>
     </row>
   </sheetData>
@@ -8755,7 +9011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9188,29 +9444,51 @@
         <v>9000000</v>
       </c>
       <c r="F19" t="n">
-        <v>517000</v>
+        <v>2117000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>07-20-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5550000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>363118000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>325818000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>54</v>
-      </c>
-      <c r="E20" t="n">
-        <v>63000000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>217228000</v>
+      <c r="B21" t="n">
+        <v>367118000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>329818000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>56</v>
+      </c>
+      <c r="E21" t="n">
+        <v>64000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>224378000</v>
       </c>
     </row>
   </sheetData>

--- a/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-07-01 - 2024-07-30.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5306,51 +5306,479 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>574</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Trần thị mỹ duyên</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J58" t="n">
+        <v/>
+      </c>
+      <c r="K58" t="n">
+        <v/>
+      </c>
+      <c r="L58" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v/>
+      </c>
+      <c r="O58" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v/>
+      </c>
+      <c r="U58" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>575</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Lan Anh</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J59" t="n">
+        <v/>
+      </c>
+      <c r="K59" t="n">
+        <v/>
+      </c>
+      <c r="L59" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v/>
+      </c>
+      <c r="O59" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v/>
+      </c>
+      <c r="U59" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V59" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>576</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Phương</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J60" t="n">
+        <v/>
+      </c>
+      <c r="K60" t="n">
+        <v/>
+      </c>
+      <c r="L60" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v/>
+      </c>
+      <c r="O60" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v/>
+      </c>
+      <c r="U60" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>577</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Trương Thị Thuỳ</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J61" t="n">
+        <v/>
+      </c>
+      <c r="K61" t="n">
+        <v/>
+      </c>
+      <c r="L61" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v/>
+      </c>
+      <c r="O61" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v/>
+      </c>
+      <c r="T61" t="n">
+        <v/>
+      </c>
+      <c r="U61" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>578</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J62" t="n">
+        <v/>
+      </c>
+      <c r="K62" t="n">
+        <v/>
+      </c>
+      <c r="L62" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v/>
+      </c>
+      <c r="O62" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v/>
+      </c>
+      <c r="U62" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>56</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>339118000</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>386118000</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
         <v>28000000</v>
       </c>
-      <c r="L58" t="n">
-        <v>367118000</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="n">
-        <v>329818000</v>
-      </c>
-      <c r="P58" t="n">
+      <c r="L63" t="n">
+        <v>414118000</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>376818000</v>
+      </c>
+      <c r="P63" t="n">
         <v>12000000</v>
       </c>
-      <c r="Q58" t="n">
-        <v>341818000</v>
-      </c>
-      <c r="R58" t="n">
+      <c r="Q63" t="n">
+        <v>388818000</v>
+      </c>
+      <c r="R63" t="n">
         <v>25300000</v>
       </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="V58" t="n">
-        <v>350000</v>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="V63" t="n">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -5364,7 +5792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8061,17 +8489,129 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>675</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>676</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>677</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>195000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>678</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>95</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="n">
-        <v>224378000</v>
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="n">
+        <v>225658000</v>
       </c>
     </row>
   </sheetData>
@@ -8266,10 +8806,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -8334,10 +8874,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>700000</v>
+        <v>850000</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -8362,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>46600000</v>
+        <v>51600000</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -8458,7 +8998,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>90000000</v>
+        <v>97000000</v>
       </c>
       <c r="C11" t="n">
         <v>9000000</v>
@@ -8498,7 +9038,7 @@
         <v>2300000</v>
       </c>
       <c r="D12" t="n">
-        <v>82750000</v>
+        <v>94750000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -8526,7 +9066,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23850000</v>
+        <v>28850000</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -8560,13 +9100,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>123730000</v>
+        <v>153730000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -8742,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -8832,22 +9372,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>331618000</v>
+        <v>378618000</v>
       </c>
       <c r="C22" t="n">
         <v>28000000</v>
       </c>
       <c r="D22" t="n">
-        <v>323818000</v>
+        <v>370818000</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G22" t="n">
-        <v>1450000</v>
+        <v>1700000</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -8927,7 +9467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6370000</v>
+        <v>6565000</v>
       </c>
     </row>
     <row r="6">
@@ -8937,7 +9477,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10100000</v>
+        <v>10850000</v>
       </c>
     </row>
     <row r="7">
@@ -8967,7 +9507,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14700000</v>
+        <v>15035000</v>
       </c>
     </row>
     <row r="10">
@@ -8997,7 +9537,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>224378000</v>
+        <v>225658000</v>
       </c>
     </row>
   </sheetData>
@@ -9011,7 +9551,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9472,23 +10012,45 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>07-21-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>47000000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1280000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>367118000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>329818000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>56</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="B22" t="n">
+        <v>414118000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>376818000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61</v>
+      </c>
+      <c r="E22" t="n">
         <v>64000000</v>
       </c>
-      <c r="F21" t="n">
-        <v>224378000</v>
+      <c r="F22" t="n">
+        <v>225658000</v>
       </c>
     </row>
   </sheetData>
